--- a/medicine/Psychotrope/D-IX/D-IX.xlsx
+++ b/medicine/Psychotrope/D-IX/D-IX.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le D-IX est une pilule créée en 1944 par le régime nazi[1],[2]. Contenant un mélange de cocaïne, de méthamphétamine sous le nom de Pervitin et d'oxycodone, elle aurait été créée dans le but d'obtenir un produit plus puissant que la Pervitin seule. Ces trois drogues étant très addictives, le D-IX devrait elle aussi entraîner une forte dépendance.
-En 1944, l'Allemagne nazie sent le vent tourner. Tous les moyens nécessaires sont utilisés, y compris l’utilisation massive de drogues par l'armée. La Pervitin n'étant pas assez efficace pour maintenir des soldats éveillés pendant de longues missions, le régime lance un programme pour trouver une pilule plus efficace. Chaque essai est nommé d'un "D" suivi d'un numéro[3]. Le D-IX se montre le plus convaincant. Des essais ont alors lieu sur des prisonniers du camp de Sachsenhausen. Les détenus vont alors marcher 90km par jour avec un sac de 20kg sur les épaules, sans repos ni nourriture[4]. Le produit a fait preuve de son efficacité, et est alors utilisé par certains équipages de sous-marins de poche. Cependant, la défaite et la capitulation du régime nazi clôtureront l'utilisation de cette substance.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le D-IX est une pilule créée en 1944 par le régime nazi,. Contenant un mélange de cocaïne, de méthamphétamine sous le nom de Pervitin et d'oxycodone, elle aurait été créée dans le but d'obtenir un produit plus puissant que la Pervitin seule. Ces trois drogues étant très addictives, le D-IX devrait elle aussi entraîner une forte dépendance.
+En 1944, l'Allemagne nazie sent le vent tourner. Tous les moyens nécessaires sont utilisés, y compris l’utilisation massive de drogues par l'armée. La Pervitin n'étant pas assez efficace pour maintenir des soldats éveillés pendant de longues missions, le régime lance un programme pour trouver une pilule plus efficace. Chaque essai est nommé d'un "D" suivi d'un numéro. Le D-IX se montre le plus convaincant. Des essais ont alors lieu sur des prisonniers du camp de Sachsenhausen. Les détenus vont alors marcher 90km par jour avec un sac de 20kg sur les épaules, sans repos ni nourriture. Le produit a fait preuve de son efficacité, et est alors utilisé par certains équipages de sous-marins de poche. Cependant, la défaite et la capitulation du régime nazi clôtureront l'utilisation de cette substance.
 </t>
         </is>
       </c>
